--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003754</v>
+        <v>0.020572</v>
       </c>
       <c r="H2">
-        <v>0.011262</v>
+        <v>0.061716</v>
       </c>
       <c r="I2">
-        <v>0.001049024329130219</v>
+        <v>0.005721785283044617</v>
       </c>
       <c r="J2">
-        <v>0.001049024329130219</v>
+        <v>0.005721785283044618</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>0.02708177144266667</v>
+        <v>0.005969774965333334</v>
       </c>
       <c r="R2">
-        <v>0.243735942984</v>
+        <v>0.053727974688</v>
       </c>
       <c r="S2">
-        <v>0.0004918690236988974</v>
+        <v>0.0001962223081794258</v>
       </c>
       <c r="T2">
-        <v>0.0004918690236988974</v>
+        <v>0.0001962223081794258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.003754</v>
+        <v>0.020572</v>
       </c>
       <c r="H3">
-        <v>0.011262</v>
+        <v>0.061716</v>
       </c>
       <c r="I3">
-        <v>0.001049024329130219</v>
+        <v>0.005721785283044617</v>
       </c>
       <c r="J3">
-        <v>0.001049024329130219</v>
+        <v>0.005721785283044618</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>0.02669225640266667</v>
+        <v>0.1462741339146666</v>
       </c>
       <c r="R3">
-        <v>0.240230307624</v>
+        <v>1.316467205232</v>
       </c>
       <c r="S3">
-        <v>0.0004847945092844159</v>
+        <v>0.004807927995671053</v>
       </c>
       <c r="T3">
-        <v>0.0004847945092844159</v>
+        <v>0.004807927995671053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.003754</v>
+        <v>0.020572</v>
       </c>
       <c r="H4">
-        <v>0.011262</v>
+        <v>0.061716</v>
       </c>
       <c r="I4">
-        <v>0.001049024329130219</v>
+        <v>0.005721785283044617</v>
       </c>
       <c r="J4">
-        <v>0.001049024329130219</v>
+        <v>0.005721785283044618</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>0.003984106435333333</v>
+        <v>0.02183298816933333</v>
       </c>
       <c r="R4">
-        <v>0.035856957918</v>
+        <v>0.196496893524</v>
       </c>
       <c r="S4">
-        <v>7.236079614690591E-05</v>
+        <v>0.0007176349791941398</v>
       </c>
       <c r="T4">
-        <v>7.236079614690591E-05</v>
+        <v>0.0007176349791941397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>2.635289666666667</v>
       </c>
       <c r="H5">
-        <v>7.905869</v>
+        <v>7.905868999999999</v>
       </c>
       <c r="I5">
-        <v>0.7364099559506655</v>
+        <v>0.7329652747079958</v>
       </c>
       <c r="J5">
-        <v>0.7364099559506655</v>
+        <v>0.7329652747079958</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>19.01127129405644</v>
+        <v>0.7647329515102222</v>
       </c>
       <c r="R5">
-        <v>171.101441646508</v>
+        <v>6.882596563591999</v>
       </c>
       <c r="S5">
-        <v>0.3452896525058939</v>
+        <v>0.02513623474211175</v>
       </c>
       <c r="T5">
-        <v>0.3452896525058939</v>
+        <v>0.02513623474211175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.635289666666667</v>
       </c>
       <c r="H6">
-        <v>7.905869</v>
+        <v>7.905868999999999</v>
       </c>
       <c r="I6">
-        <v>0.7364099559506655</v>
+        <v>0.7329652747079958</v>
       </c>
       <c r="J6">
-        <v>0.7364099559506655</v>
+        <v>0.7329652747079958</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>18.73783363824311</v>
@@ -818,10 +818,10 @@
         <v>168.640502744188</v>
       </c>
       <c r="S6">
-        <v>0.3403233779365899</v>
+        <v>0.6158994247068492</v>
       </c>
       <c r="T6">
-        <v>0.3403233779365899</v>
+        <v>0.6158994247068492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.635289666666667</v>
       </c>
       <c r="H7">
-        <v>7.905869</v>
+        <v>7.905868999999999</v>
       </c>
       <c r="I7">
-        <v>0.7364099559506655</v>
+        <v>0.7329652747079958</v>
       </c>
       <c r="J7">
-        <v>0.7364099559506655</v>
+        <v>0.7329652747079958</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>2.796823260504555</v>
+        <v>2.796823260504556</v>
       </c>
       <c r="R7">
         <v>25.171409344541</v>
       </c>
       <c r="S7">
-        <v>0.05079692550818174</v>
+        <v>0.09192961525903486</v>
       </c>
       <c r="T7">
-        <v>0.05079692550818174</v>
+        <v>0.09192961525903483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.818559</v>
       </c>
       <c r="I8">
-        <v>0.2625410197202043</v>
+        <v>0.2613129400089597</v>
       </c>
       <c r="J8">
-        <v>0.2625410197202043</v>
+        <v>0.2613129400089597</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>6.777798848843111</v>
+        <v>0.2726385857235556</v>
       </c>
       <c r="R8">
-        <v>61.000189639588</v>
+        <v>2.453747271512</v>
       </c>
       <c r="S8">
-        <v>0.1231008580685261</v>
+        <v>0.008961438730959463</v>
       </c>
       <c r="T8">
-        <v>0.123100858068526</v>
+        <v>0.008961438730959463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.818559</v>
       </c>
       <c r="I9">
-        <v>0.2625410197202043</v>
+        <v>0.2613129400089597</v>
       </c>
       <c r="J9">
-        <v>0.2625410197202043</v>
+        <v>0.2613129400089597</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>6.680314288229777</v>
@@ -1004,10 +1004,10 @@
         <v>60.122828594068</v>
       </c>
       <c r="S9">
-        <v>0.121330307875526</v>
+        <v>0.2195772364305951</v>
       </c>
       <c r="T9">
-        <v>0.121330307875526</v>
+        <v>0.2195772364305951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.818559</v>
       </c>
       <c r="I10">
-        <v>0.2625410197202043</v>
+        <v>0.2613129400089597</v>
       </c>
       <c r="J10">
-        <v>0.2625410197202043</v>
+        <v>0.2613129400089597</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>0.9971087773278887</v>
+        <v>0.9971087773278889</v>
       </c>
       <c r="R10">
-        <v>8.973978995950999</v>
+        <v>8.973978995951001</v>
       </c>
       <c r="S10">
-        <v>0.01810985377615228</v>
+        <v>0.03277426484740514</v>
       </c>
       <c r="T10">
-        <v>0.01810985377615227</v>
+        <v>0.03277426484740513</v>
       </c>
     </row>
   </sheetData>
